--- a/data/trans_camb/P41A_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P41A_R2-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.23010637085933</v>
+        <v>-4.091419695144975</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-12.70536232765379</v>
+        <v>-12.63780037479374</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-15.74117891429792</v>
+        <v>-15.31478471551376</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.851911015242512</v>
+        <v>-3.018248795152587</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-11.54902997610074</v>
+        <v>-11.6076329141105</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-13.58615909260205</v>
+        <v>-13.39288545990758</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.963083804279453</v>
+        <v>-1.753031506039989</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-10.57924229798353</v>
+        <v>-10.65405387286162</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-12.8580116198364</v>
+        <v>-13.14571598067732</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.454648812446476</v>
+        <v>6.407575616495567</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.912471556751004</v>
+        <v>-2.069232037050903</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-3.809474413054089</v>
+        <v>-3.215187450855242</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.884463127140612</v>
+        <v>7.584824433648538</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-1.387138008277873</v>
+        <v>-1.292910480954837</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-3.766005163495732</v>
+        <v>-3.922230374119854</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.638266941973107</v>
+        <v>5.791323183025996</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-3.084012294631808</v>
+        <v>-3.317837067515836</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-4.976612569600234</v>
+        <v>-5.301167481169935</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.08625795557078203</v>
+        <v>-0.08650493615694511</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2592031939991704</v>
+        <v>-0.2588947892271308</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3223293409556074</v>
+        <v>-0.3227386289545638</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.06786559408021189</v>
+        <v>-0.07180083227122577</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2767006223327037</v>
+        <v>-0.277109063097775</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3297296903928383</v>
+        <v>-0.3263239490821201</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.04497407518792836</v>
+        <v>-0.03941446342722982</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2379497967512393</v>
+        <v>-0.2378315073231559</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2906613758648545</v>
+        <v>-0.298179599186721</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1510029975958588</v>
+        <v>0.1519058301043461</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.04473885052602981</v>
+        <v>-0.04754211966107307</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.08508537059931086</v>
+        <v>-0.07745773361361966</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2215622240152601</v>
+        <v>0.2071680015516384</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.03699471346495123</v>
+        <v>-0.02799132731971978</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1018398064491885</v>
+        <v>-0.1051144043292776</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1378595514406019</v>
+        <v>0.1422587830703744</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.07534448429886917</v>
+        <v>-0.08265417118370169</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1206478547100899</v>
+        <v>-0.1289041970550804</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>0.0834384426373902</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-3.865868450018656</v>
+        <v>-3.865868450018661</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.5993878991717105</v>
@@ -878,7 +878,7 @@
         <v>-0.4907240357697795</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-3.477868345534779</v>
+        <v>-3.47786834553479</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.93032315995638</v>
+        <v>-4.078355622373297</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.476548468360052</v>
+        <v>-5.379544093055105</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.017613493871519</v>
+        <v>-8.395868517609481</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.049015444003626</v>
+        <v>-5.960616538001668</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.45564140233357</v>
+        <v>-4.130668131426889</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-8.325012518703048</v>
+        <v>-8.620123268288674</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.554208302593483</v>
+        <v>-3.780856494016635</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.556253887685069</v>
+        <v>-3.520673570958051</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-6.664552789176753</v>
+        <v>-7.202727041520002</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.547111402297395</v>
+        <v>5.215378160314056</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.18273007752047</v>
+        <v>3.754390431878786</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.390602977075063</v>
+        <v>1.6144508854194</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.810085820260887</v>
+        <v>3.294694596743017</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.454902295990361</v>
+        <v>4.789565666985968</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5652690287788672</v>
+        <v>0.2190269290337376</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.97905582006462</v>
+        <v>2.646539862582698</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.68612698326581</v>
+        <v>2.731197817108531</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05231412900283998</v>
+        <v>-0.4186169138086763</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.002036654536706379</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.09436224200944435</v>
+        <v>-0.09436224200944447</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.01317749004144921</v>
@@ -983,7 +983,7 @@
         <v>-0.01078852459883167</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.07646062850465872</v>
+        <v>-0.07646062850465897</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.07358241123929639</v>
+        <v>-0.07734374027372834</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1066574133252939</v>
+        <v>-0.1025138277686421</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1550455949054677</v>
+        <v>-0.1618857480266098</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1408443948851237</v>
+        <v>-0.1382869004794265</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1036942863235761</v>
+        <v>-0.0961023889620157</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1913444814381066</v>
+        <v>-0.2025026783014683</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.07642607858719451</v>
+        <v>-0.08027342097328612</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.07575185993379739</v>
+        <v>-0.07494954374665733</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1432611034316938</v>
+        <v>-0.1537646467975442</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.117621874146499</v>
+        <v>0.1101926399701072</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.06635271753978157</v>
+        <v>0.07936982933439897</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.04695465269427018</v>
+        <v>0.03581145011927613</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.07495978077482214</v>
+        <v>0.08601708666864678</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1162728842199016</v>
+        <v>0.1256300718536211</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01528169939327812</v>
+        <v>0.003407407147153529</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06736309035926186</v>
+        <v>0.0606370930531601</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.06085966057222771</v>
+        <v>0.06220488551351164</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.0002691684076727026</v>
+        <v>-0.009436396199187715</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>0.4223976986090283</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-5.462993178247455</v>
+        <v>-5.462993178247444</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-2.865712371257589</v>
@@ -1092,7 +1092,7 @@
         <v>-2.166766909888407</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-8.849169011239793</v>
+        <v>-8.849169011239805</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.737490525355088</v>
+        <v>-5.61734993815441</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.772971633272217</v>
+        <v>-10.03563286175793</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-18.56030349976079</v>
+        <v>-18.76976179914013</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-10.55892390608942</v>
+        <v>-10.04163569785172</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.104195187859595</v>
+        <v>-4.505031831602628</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-11.04141361791055</v>
+        <v>-11.12364585337317</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-6.691319507211989</v>
+        <v>-6.9923381661283</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-5.842774193617728</v>
+        <v>-5.872210744840358</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-13.19671770584908</v>
+        <v>-13.14721215097295</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.291588737753155</v>
+        <v>5.087858151232949</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8855420687108697</v>
+        <v>1.461866251216487</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-5.572602398733319</v>
+        <v>-5.749232812418988</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.09184073126168839</v>
+        <v>0.02842130345774153</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.752398354846912</v>
+        <v>5.724285110677704</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6344717439302002</v>
+        <v>0.2975382861073974</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5842265606382612</v>
+        <v>0.8831128356999554</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.519134501094143</v>
+        <v>1.310858983149906</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-4.722747002907187</v>
+        <v>-4.760345651470653</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.01001744792450895</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.1295585886363819</v>
+        <v>-0.1295585886363817</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.06239972285999371</v>
@@ -1197,7 +1197,7 @@
         <v>-0.04718046934344213</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.1926870607744512</v>
+        <v>-0.1926870607744514</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1117619159573414</v>
+        <v>-0.1085699954412334</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1856668634889518</v>
+        <v>-0.1884654890367099</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3601456880854909</v>
+        <v>-0.3676332161748351</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2303549983049641</v>
+        <v>-0.2292910045158039</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1135862161676665</v>
+        <v>-0.09970605071368807</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.246693317151721</v>
+        <v>-0.2462198758159645</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1390003867142016</v>
+        <v>-0.1472775582217798</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1215656229956287</v>
+        <v>-0.1218378353426738</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2757821305102863</v>
+        <v>-0.2768224721799847</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.113192212939078</v>
+        <v>0.1098498821677189</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.01832616800613031</v>
+        <v>0.03302172157127292</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1190146847511825</v>
+        <v>-0.1207680729202256</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.002096843167281557</v>
+        <v>-0.003076638518680819</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1450682824987661</v>
+        <v>0.138519098332005</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01327436906392006</v>
+        <v>0.008057794114110138</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01289567849894236</v>
+        <v>0.01991066952497886</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.03492653386498565</v>
+        <v>0.0294310848573778</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.1042429425127429</v>
+        <v>-0.1073535850450647</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-3.353030082746644</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-10.22441935668493</v>
+        <v>-10.22441935668494</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-2.191537617885586</v>
@@ -1306,7 +1306,7 @@
         <v>-2.882401138351693</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-7.775194599288132</v>
+        <v>-7.775194599288121</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.823522517698983</v>
+        <v>-7.637598977741587</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-7.769234665432047</v>
+        <v>-8.360506158183915</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-15.32291025841458</v>
+        <v>-15.52357135854515</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-6.591470378999071</v>
+        <v>-6.550674181609996</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-7.086954249116438</v>
+        <v>-7.036898932984072</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-10.31337127103563</v>
+        <v>-10.06151796405938</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-6.11227379059003</v>
+        <v>-5.841838457615141</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-6.070974518502691</v>
+        <v>-6.164685452156092</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-11.08140220485257</v>
+        <v>-11.23203256982228</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.394887934114116</v>
+        <v>1.36217098144365</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.186424227406179</v>
+        <v>1.571106122911889</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-5.265128573605424</v>
+        <v>-5.389699898990285</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.049816372458308</v>
+        <v>2.444099461498996</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.812904762694918</v>
+        <v>1.438540816092139</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-1.135651386210781</v>
+        <v>-1.337721414674728</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2538291254937481</v>
+        <v>0.6110611508933709</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.231766650103514</v>
+        <v>0.2908554464229137</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-4.488046408347992</v>
+        <v>-3.986003064623867</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.06406317600745064</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.1953483150037054</v>
+        <v>-0.1953483150037057</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.05470128925910079</v>
@@ -1411,7 +1411,7 @@
         <v>-0.06278324510273169</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.1693560073070514</v>
+        <v>-0.1693560073070512</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1419852100555412</v>
+        <v>-0.1412552825985544</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1438440593702797</v>
+        <v>-0.1525568093182663</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2845289193267559</v>
+        <v>-0.2831233405802432</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1587085500326173</v>
+        <v>-0.1521008220632634</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1666216995279538</v>
+        <v>-0.1665863791203688</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2460839306458784</v>
+        <v>-0.239377343366768</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1302468724740466</v>
+        <v>-0.1230600692388562</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1303396693187845</v>
+        <v>-0.1284925620336597</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2342294503135325</v>
+        <v>-0.2353844481468458</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.02978967450348626</v>
+        <v>0.02733373469681854</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.02439698649139239</v>
+        <v>0.03142776188644068</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1030528648334312</v>
+        <v>-0.110846736857352</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.05557508783988531</v>
+        <v>0.06468482084737456</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.04697839325825643</v>
+        <v>0.03728869906612511</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.02933427248075715</v>
+        <v>-0.03443048615754918</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.006206102318188079</v>
+        <v>0.01380415008632698</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.005063319541940281</v>
+        <v>0.006990570697496986</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.09999587235746137</v>
+        <v>-0.08882051818232715</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-3.72837282628623</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-8.270838092137584</v>
+        <v>-8.270838092137577</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-1.847834621650973</v>
@@ -1511,7 +1511,7 @@
         <v>-1.738302014535392</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-5.783099999815478</v>
+        <v>-5.783099999815472</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-1.211840935855268</v>
@@ -1520,7 +1520,7 @@
         <v>-2.740755283910762</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-6.968318147952102</v>
+        <v>-6.968318147952107</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.851091868563118</v>
+        <v>-2.768249119354077</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.205542167326987</v>
+        <v>-6.087670276222276</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-11.04050539855006</v>
+        <v>-10.97118471793632</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-4.035393154261289</v>
+        <v>-4.206396276079222</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.150915317353763</v>
+        <v>-4.348936433382661</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-8.205982791542205</v>
+        <v>-8.318637633940755</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.842285459433571</v>
+        <v>-2.939190287001344</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-4.609027574562604</v>
+        <v>-4.566699649996807</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-8.781266439514422</v>
+        <v>-8.789966444440742</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.895832321814431</v>
+        <v>2.292047597580096</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.20326149126077</v>
+        <v>-1.030757346726179</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-5.511532924576199</v>
+        <v>-5.467087686847866</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.6035060543755907</v>
+        <v>0.3884227600264867</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.608190617190886</v>
+        <v>0.4490118806542686</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-3.204555618025193</v>
+        <v>-3.548627452789218</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.5542515128460159</v>
+        <v>0.5858476673638897</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-1.038466104754672</v>
+        <v>-1.031324372656839</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-5.14808428735563</v>
+        <v>-4.974019642396263</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.07485953834553123</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.1660647017226493</v>
+        <v>-0.1660647017226492</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.04562628112434481</v>
@@ -1616,7 +1616,7 @@
         <v>-0.04292172874396308</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.1427948926111303</v>
+        <v>-0.1427948926111302</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.02687907481168621</v>
@@ -1625,7 +1625,7 @@
         <v>-0.0607909537770888</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.1545598430195338</v>
+        <v>-0.154559843019534</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.05526911712023101</v>
+        <v>-0.05430415345161812</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1209891153417194</v>
+        <v>-0.1196981550374046</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2179165581262</v>
+        <v>-0.2168120634516432</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.09784723824793476</v>
+        <v>-0.1016126090658372</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.09841872493245782</v>
+        <v>-0.1039678705112305</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1966027312611244</v>
+        <v>-0.195002358189768</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.06219249046692144</v>
+        <v>-0.06402292089782254</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1004704112049413</v>
+        <v>-0.09887847677192592</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1920758577887048</v>
+        <v>-0.1915604793484124</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.03901020869595423</v>
+        <v>0.04602096640390718</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.02484867213297309</v>
+        <v>-0.0219455578547528</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1139092449828231</v>
+        <v>-0.1137613477168301</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.01512125439156539</v>
+        <v>0.009794052669276958</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.01593799911625231</v>
+        <v>0.01082425843236778</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.08280804835841264</v>
+        <v>-0.08824703557191665</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01323660818471337</v>
+        <v>0.0131217982005389</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.02354027910222393</v>
+        <v>-0.02340732295109574</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.1160706615941709</v>
+        <v>-0.1132188924819691</v>
       </c>
     </row>
     <row r="34">
